--- a/cneo_synergy/Results/Validation/proteins involved in synergy resp - igy edited.xlsx
+++ b/cneo_synergy/Results/Validation/proteins involved in synergy resp - igy edited.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Dee's selections" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GO terms and high FC relative to AMB only" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="High FC relative to AMB only" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="176">
   <si>
     <t xml:space="preserve">Potential proteins for Crypto synergy response analysis in MICR3042 that are present in Hiten KO library</t>
   </si>
@@ -281,6 +282,9 @@
     <t xml:space="preserve">lathosterol oxidase</t>
   </si>
   <si>
+    <t xml:space="preserve">Genes are found in the Madhani Knockout Set</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genes involved in biological processes important for drug synergy</t>
   </si>
   <si>
@@ -426,6 +430,126 @@
   </si>
   <si>
     <t xml:space="preserve">Protein SIS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High fold-change relative to AMB only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Annotated Proteins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAUB_ECOL6|Taurine import ATP-binding protein TauB OS=Escherichia coli O6:H1 (strain CFT073 / ATCC 700928 / UPEC) OX=199310 GN=tauB PE=3 SV=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothetical Proteins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_01031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VNV6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothetical protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein YOP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_03873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VGU8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncharacterized protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothetical protein, hypothetical protein, variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_01751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VUN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VRG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_06121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VY55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YCJD_SCHPO|Uncharacterized J domain-containing protein C63.13 OS=Schizosaccharomyces pombe (strain 972 / ATCC 24843) OX=284812 GN=SPCC63.13 PE=3 SV=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VG31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_01585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9W140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_00848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VK61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothetical protein, hypothetical protein, variant 1, hypothetical protein, variant 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VWU7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VQX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9VIX4</t>
   </si>
 </sst>
 </file>
@@ -693,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1508,300 +1632,1435 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3.14574791827967</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.00043271445898224</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.00526413586611</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.0304527035436054</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>2.14048378241356</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1059</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5.10450274350436</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.00054538122904388</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3.85747801211418</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.00120805194391379</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1.24702473139018</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.916117182180154</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.00124440555195212</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>-0.0998424435849341</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.545694112977929</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1.01595962576509</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="T6" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3.14574791827967</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.00043271445898224</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1.00526413586611</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.0304527035436054</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>2.14048378241356</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>1059</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>122</v>
+        <v>1.83478596148823</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.00016801549034406</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.329472783019565</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>5.10450274350436</v>
+        <v>0.121106008178576</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.00054538122904388</v>
+        <v>1.50531317846867</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3.85747801211418</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0.00120805194391379</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1.24702473139018</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3.14574791827967</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.00043271445898224</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.00526413586611</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0304527035436054</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2.14048378241356</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1059</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.10450274350436</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.00054538122904388</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3.85747801211418</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.00120805194391379</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.24702473139018</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B10" s="0" t="n">
+        <v>0.916117182180154</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.00124440555195212</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>-0.0998424435849341</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.545694112977929</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.01595962576509</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0.916117182180154</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.00124440555195212</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>-0.0998424435849341</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.545694112977929</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1.01595962576509</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="I10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="U8" s="0" t="s">
+      <c r="M10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="O10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="0" t="s">
         <v>134</v>
       </c>
-    </row>
+      <c r="T10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4.20239501751863</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.00218158609084575</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2.77384970952607</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.00823360122882002</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.42854530799256</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4.34100205606641</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.00083129368347882</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3.01127067846363</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.00242189729223589</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1.32973137760278</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4.62017616848896</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.00087359473203803</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3.40264393344567</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.00203513572079638</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.21753223504329</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2.68075971586165</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.00099542381179762</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.69187636840339</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.118635379287944</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1.98888334745826</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2.77487556436484</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.00131605624545119</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.73535469231201</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.00613862908836554</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1.03952087205283</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2.42630977680748</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.00182061701853213</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.757112050859212</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.0939795118560231</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.66919772594827</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3.53386899898479</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.00235911700393037</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2.42648986679888</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.00718987274582103</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.10737913218591</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>4.83114119130142</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.00292844758855274</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>3.75409220752275</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.00578017264033069</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1.07704898377867</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>-0.81836801160612</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.0230461222296799</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.644030619333277</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.0331747292039039</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>-1.4623986309394</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2.45850957058158</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.0332004285727457</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.0156480542779624</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.986908102166948</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2.44286151630362</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>-0.997300784146323</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.0403778593215473</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.579281299848409</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.129585604250792</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>-1.57658208399473</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
